--- a/use_case_tests/comparison.results.xlsx
+++ b/use_case_tests/comparison.results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,15 +556,30 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>à ignorer_truth</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>à ignorer_compared</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>à ignorer_comparison</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>llm test_truth</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>llm test_compared</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>llm test_comparison</t>
         </is>
@@ -687,19 +702,30 @@
           <t>Correct</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>i am 24 years old and Portuguese.</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>the person comes from an European country and is young.</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Incorrect</t>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -804,17 +830,28 @@
           <t>Correct</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>i am hungry and it's impacting my judgement</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>a fact about one's personality is described</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Incorrect</t>
         </is>
@@ -925,9 +962,20 @@
           <t>Correct</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9</v>
+      </c>
       <c r="AA4" t="inlineStr">
+        <is>
+          <t>Incorrect</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1050,17 +1098,28 @@
           <t>Correct</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>E. Coli was found in several meats across the supermarket's aisles</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>microbiological tests were conducted in a supermarket.</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>Incorrect</t>
         </is>
@@ -1173,13 +1232,28 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
           <t>98+42</t>
         </is>
       </c>
-      <c r="Z6" t="n">
+      <c r="AC6" t="n">
         <v>140</v>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1209,10 +1283,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1278,9 +1352,24 @@
           <t>Correct</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/use_case_tests/comparison.results.xlsx
+++ b/use_case_tests/comparison.results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,30 +556,15 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>à ignorer_truth</t>
+          <t>llm test_truth</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>à ignorer_compared</t>
+          <t>llm test_compared</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>à ignorer_comparison</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>llm test_truth</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>llm test_compared</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>llm test_comparison</t>
         </is>
@@ -702,28 +687,17 @@
           <t>Correct</t>
         </is>
       </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1</v>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>i am 24 years old and Portuguese.</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>the person comes from an European country and is young.</t>
+        </is>
       </c>
       <c r="AA2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>i am 24 years old and Portuguese.</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>the person comes from an European country and is young.</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -830,28 +804,17 @@
           <t>Correct</t>
         </is>
       </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>i am hungry and it's impacting my judgement</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>a fact about one's personality is described</t>
+        </is>
       </c>
       <c r="AA3" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>i am hungry and it's impacting my judgement</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>a fact about one's personality is described</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
         <is>
           <t>Incorrect</t>
         </is>
@@ -962,20 +925,9 @@
           <t>Correct</t>
         </is>
       </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>9</v>
-      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
-        <is>
-          <t>Incorrect</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1098,28 +1050,17 @@
           <t>Correct</t>
         </is>
       </c>
-      <c r="Y5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1</v>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>E. Coli was found in several meats across the supermarket's aisles</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>microbiological tests were conducted in a supermarket.</t>
+        </is>
       </c>
       <c r="AA5" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>E. Coli was found in several meats across the supermarket's aisles</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>microbiological tests were conducted in a supermarket.</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
         <is>
           <t>Incorrect</t>
         </is>
@@ -1232,28 +1173,13 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
+          <t>98+42</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>140</v>
       </c>
       <c r="AA6" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>98+42</t>
-        </is>
-      </c>
-      <c r="AC6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AD6" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1352,24 +1278,9 @@
           <t>Correct</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>k</t>
-        </is>
-      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
